--- a/AdvisorManagement/Upload/ImportClass.xlsx
+++ b/AdvisorManagement/Upload/ImportClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trinh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219DCEE-B1E0-427A-9A00-68C2DCE2F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65618A30-8AF0-4562-8E29-64A1144B04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -60,37 +60,58 @@
     <t>TP.HCM, ngày   tháng 10 năm 2022</t>
   </si>
   <si>
-    <t>Trịnh Ngọc Phú</t>
-  </si>
-  <si>
-    <t>phu.dd@vlu.edu.vn</t>
-  </si>
-  <si>
     <t>Học Kì</t>
   </si>
   <si>
-    <t>K24-Pm01</t>
-  </si>
-  <si>
-    <t>K24-Pm02</t>
-  </si>
-  <si>
-    <t>K24-Pm03</t>
-  </si>
-  <si>
-    <t>K24-Pm04</t>
-  </si>
-  <si>
-    <t>Học kỳ 3 - 2022</t>
-  </si>
-  <si>
     <t>Học kỳ 3 - 2023</t>
   </si>
   <si>
-    <t>Học kỳ 3 - 2024</t>
-  </si>
-  <si>
     <t>Học kỳ 3 - 2025</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Thoa</t>
+  </si>
+  <si>
+    <t>K23-Pm01</t>
+  </si>
+  <si>
+    <t>K23-Pm02</t>
+  </si>
+  <si>
+    <t>K23-Pm03</t>
+  </si>
+  <si>
+    <t>K23-Pm04</t>
+  </si>
+  <si>
+    <t>K23-Pm05</t>
+  </si>
+  <si>
+    <t>K23-Pm06</t>
+  </si>
+  <si>
+    <t>K23-Pm07</t>
+  </si>
+  <si>
+    <t>K23-Pm08</t>
+  </si>
+  <si>
+    <t>thoa.dd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>Học kỳ 1 - 2022</t>
+  </si>
+  <si>
+    <t>Học kỳ 2 - 2024</t>
+  </si>
+  <si>
+    <t>Học kỳ 2 - 2026</t>
+  </si>
+  <si>
+    <t>Học kỳ 1 - 2023</t>
+  </si>
+  <si>
+    <t>Học kỳ 1 - 2024</t>
   </si>
 </sst>
 </file>
@@ -258,7 +279,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,15 +321,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,13 +336,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -613,7 +628,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -637,20 +652,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="22.5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -666,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
@@ -674,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
@@ -691,16 +706,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
@@ -708,16 +723,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
@@ -725,45 +740,85 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
@@ -783,7 +838,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
@@ -809,65 +864,65 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="10"/>
       <c r="D22" s="15"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="10"/>
       <c r="D23" s="15"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="18.95" customHeight="1">
@@ -893,20 +948,20 @@
     </row>
     <row r="32" spans="1:5" ht="18.95" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:4" ht="26.25" customHeight="1">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -941,7 +996,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7:C9" r:id="rId2" display="phu.dd@vlu.edu.vn" xr:uid="{3A3C4A9F-159E-44BD-B7A6-252FB81F276D}"/>
+    <hyperlink ref="C7:C13" r:id="rId2" display="thoa.dd@vlu.edu.vn" xr:uid="{0FD18A94-87DE-4BAA-8DFF-26558D526393}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AdvisorManagement/Upload/ImportClass.xlsx
+++ b/AdvisorManagement/Upload/ImportClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trinh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219DCEE-B1E0-427A-9A00-68C2DCE2F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92098836-124F-4E45-BDB7-5503D5E193FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVHT 2022-2023" sheetId="2" r:id="rId1"/>
@@ -69,18 +69,6 @@
     <t>Học Kì</t>
   </si>
   <si>
-    <t>K24-Pm01</t>
-  </si>
-  <si>
-    <t>K24-Pm02</t>
-  </si>
-  <si>
-    <t>K24-Pm03</t>
-  </si>
-  <si>
-    <t>K24-Pm04</t>
-  </si>
-  <si>
     <t>Học kỳ 3 - 2022</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>Học kỳ 3 - 2025</t>
+  </si>
+  <si>
+    <t>K24-PM01</t>
+  </si>
+  <si>
+    <t>K24-PM02</t>
+  </si>
+  <si>
+    <t>K24-PM03</t>
+  </si>
+  <si>
+    <t>K24-PM04</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,24 +315,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,17 +610,17 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I19" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -636,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="22.5">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
@@ -644,7 +641,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="22.5">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="22.8">
       <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
@@ -680,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
@@ -697,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
@@ -714,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
@@ -731,34 +728,34 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="16.5">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="16.8">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="16.5">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="16.8">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18.95" customHeight="1">
+    <row r="13" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="10"/>
@@ -779,7 +776,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.8">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -870,28 +867,28 @@
       <c r="D28" s="20"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="18.95" customHeight="1">
+    <row r="29" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1">
+    <row r="30" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1">
+    <row r="31" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1">
+    <row r="32" spans="1:5" ht="18.899999999999999" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="21"/>
       <c r="C32" s="10"/>
@@ -899,33 +896,33 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:4" ht="26.25" customHeight="1">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B34" s="22"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="16.5">
+    <row r="35" spans="2:4" ht="16.8">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:4" ht="16.5">
+    <row r="36" spans="2:4" ht="16.8">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="2:4" ht="16.5">
+    <row r="37" spans="2:4" ht="16.8">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:4" ht="16.5">
+    <row r="38" spans="2:4" ht="16.8">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>

--- a/AdvisorManagement/Upload/ImportClass.xlsx
+++ b/AdvisorManagement/Upload/ImportClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92098836-124F-4E45-BDB7-5503D5E193FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90ADFD5-C5D3-40CE-86AF-47E70EF04660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CVHT 2022-2023" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CVHT 2022-2023'!$A$5:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CVHT 2022-2023'!$A$5:$D$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -60,44 +60,32 @@
     <t>TP.HCM, ngày   tháng 10 năm 2022</t>
   </si>
   <si>
-    <t>Trịnh Ngọc Phú</t>
-  </si>
-  <si>
-    <t>phu.dd@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>Học Kì</t>
-  </si>
-  <si>
-    <t>Học kỳ 3 - 2022</t>
-  </si>
-  <si>
-    <t>Học kỳ 3 - 2023</t>
-  </si>
-  <si>
-    <t>Học kỳ 3 - 2024</t>
-  </si>
-  <si>
-    <t>Học kỳ 3 - 2025</t>
-  </si>
-  <si>
-    <t>K24-PM01</t>
-  </si>
-  <si>
-    <t>K24-PM02</t>
-  </si>
-  <si>
-    <t>K24-PM03</t>
-  </si>
-  <si>
-    <t>K24-PM04</t>
+    <t>Nguyễn Hạ</t>
+  </si>
+  <si>
+    <t>ha.197pm09438@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>71K28-PM01</t>
+  </si>
+  <si>
+    <t>71K28-PM04</t>
+  </si>
+  <si>
+    <t>71K28-PM05</t>
+  </si>
+  <si>
+    <t>71K19-PM02</t>
+  </si>
+  <si>
+    <t>71K23-PM03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +163,6 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3E5569"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,7 +240,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,15 +297,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -607,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:I19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -619,37 +600,36 @@
     <col min="2" max="2" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="22.8">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="22.8">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="22.8">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="22.8">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -662,11 +642,8 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -677,13 +654,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -694,13 +668,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="15">
         <v>3</v>
       </c>
@@ -711,13 +682,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -728,177 +696,160 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="16.8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="16.8">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="16.8">
+    </row>
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="16.8">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.899999999999999" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="10"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="10"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.8">
+    </row>
+    <row r="16" spans="1:4" ht="16.8">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="10"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="21"/>
       <c r="C20" s="10"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="21"/>
       <c r="C21" s="10"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="21"/>
       <c r="C22" s="10"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="21"/>
       <c r="C23" s="10"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="21"/>
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="21"/>
       <c r="C25" s="10"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
       <c r="C26" s="10"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
       <c r="C27" s="10"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.899999999999999" customHeight="1">
+    </row>
+    <row r="29" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.899999999999999" customHeight="1">
+    </row>
+    <row r="30" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.899999999999999" customHeight="1">
+    </row>
+    <row r="31" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.899999999999999" customHeight="1">
+    </row>
+    <row r="32" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="21"/>
       <c r="C32" s="10"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:4" ht="26.25" customHeight="1">
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
       <c r="B34" s="9"/>
@@ -931,16 +882,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D109">
     <sortCondition ref="B6:B109"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7:C9" r:id="rId2" display="phu.dd@vlu.edu.vn" xr:uid="{3A3C4A9F-159E-44BD-B7A6-252FB81F276D}"/>
+    <hyperlink ref="C7:C9" r:id="rId2" display="ha.197pm09438@vanlanguni.vn" xr:uid="{8C87E7BD-C9AA-43A9-A7B8-7BA87D7DDA69}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{B119C404-552E-4E07-AACB-6B992ACA5F58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/AdvisorManagement/Upload/ImportClass.xlsx
+++ b/AdvisorManagement/Upload/ImportClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90ADFD5-C5D3-40CE-86AF-47E70EF04660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91805E8B-831B-4A84-B7FD-6418DD4B059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>EMAIL</t>
-  </si>
-  <si>
-    <t>Trợ lý CTSV</t>
   </si>
   <si>
     <t>TP.HCM, ngày   tháng 10 năm 2022</t>
@@ -85,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,29 +152,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -240,7 +225,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,9 +252,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -282,17 +264,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,15 +564,14 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -614,20 +586,20 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="22.8">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="22.8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -644,219 +616,215 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="16.8">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+    </row>
+    <row r="11" spans="1:4" s="16" customFormat="1" ht="16.8">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="16.8">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" s="16" customFormat="1" ht="16.8">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="16.8">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="18.899999999999999" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:4" ht="26.25" customHeight="1">
-      <c r="C33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="24"/>
+      <c r="C33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="2:4" ht="16.8">
       <c r="B35" s="8"/>
@@ -873,7 +841,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:4" ht="16.8">
+    <row r="38" spans="2:4">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -887,7 +855,7 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C33:D33"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C7:C9" r:id="rId2" display="ha.197pm09438@vanlanguni.vn" xr:uid="{8C87E7BD-C9AA-43A9-A7B8-7BA87D7DDA69}"/>
